--- a/data/VoC_metrics_dashboard.xlsx
+++ b/data/VoC_metrics_dashboard.xlsx
@@ -8,23 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgao58/Documents/Amazon-FineFood-VoC-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2A2012-9EAD-FD41-A6B5-1FC8738D6973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BE4F31-5C51-CC41-8B56-8B50CEE51616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1660" windowWidth="26720" windowHeight="17120" xr2:uid="{F2BFDEF5-7478-6549-8073-A73FB5D2CCD1}"/>
+    <workbookView xWindow="4800" yWindow="1660" windowWidth="26720" windowHeight="17120" activeTab="1" xr2:uid="{F2BFDEF5-7478-6549-8073-A73FB5D2CCD1}"/>
   </bookViews>
   <sheets>
     <sheet name="VoC_metrics_dashboard" sheetId="2" r:id="rId1"/>
-    <sheet name="VoC_metrics_long" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="VoC_metrics_long" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="VoC_topics_with_themes" localSheetId="2">Sheet1!$A$1:$E$193</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="48" r:id="rId3"/>
+    <pivotCache cacheId="66" r:id="rId5"/>
+    <pivotCache cacheId="69" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{04B59E7C-D696-8E47-815B-6EFEF8AEABD8}" name="VoC_topics_with_themes" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/rgao58/Documents/Amazon-FineFood-VoC-Project/data/VoC_topics_with_themes.csv" tab="0" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="678">
   <si>
     <t>Level</t>
   </si>
@@ -1788,6 +1810,276 @@
   </si>
   <si>
     <t>Average of Value</t>
+  </si>
+  <si>
+    <t>TopicId</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>ThemeName</t>
+  </si>
+  <si>
+    <t>Detractor</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>General / Other</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>sauce</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Promoter</t>
+  </si>
+  <si>
+    <t>bars</t>
+  </si>
+  <si>
+    <t>Delivery Speed / Shipping</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>flavor</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>Packaging / Damage</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>cups</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>Delicious / Love</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>cats</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>dogs</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>Taste &amp; Freshness</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>didn</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>eating</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>teas</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>jerky</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>Price &amp; Value</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>tastes</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>Quality / Ingredients</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>organic</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2226,6 +2518,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2271,13 +2674,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3795,6 +4207,36 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ran Gao" refreshedDate="45928.462019444443" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="192" xr:uid="{0CD40270-654C-564F-94DD-76F2920494EB}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E193" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="TopicId" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Sentiment" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Keyword" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="ThemeName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1287">
   <r>
@@ -12805,12 +13247,1361 @@
     <s v="B009RB4GO4"/>
     <x v="1"/>
     <n v="3.24444444444444"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="192">
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="hair"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="just"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="make"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="products"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="sauce"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="time"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="use"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="used"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Detractor"/>
+    <s v="water"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="bars"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="chocolate"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="flavor"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="great"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="just"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="really"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="sugar"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="sweet"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="Promoter"/>
+    <s v="taste"/>
+    <n v="1"/>
+    <s v="Delivery Speed / Shipping"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="amazon"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="bag"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="bags"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="box"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="buy"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="chips"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="cups"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="order"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="ordered"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="price"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Detractor"/>
+    <s v="received"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="cat"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="cats"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="dog"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="dogs"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="eat"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="food"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="great"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="love"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="loves"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Promoter"/>
+    <s v="treats"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="bars"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="box"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="candy"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="chocolate"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="cookies"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="just"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="stale"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Detractor"/>
+    <s v="taste"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="best"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="chips"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="cookies"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="flavor"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="free"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="great"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="just"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="love"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Promoter"/>
+    <s v="taste"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="didn"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="don"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="eat"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="eating"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="food"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="just"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="really"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="taste"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="tried"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Detractor"/>
+    <s v="try"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="drink"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="flavor"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="great"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="green"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="hot"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="love"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="taste"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="tea"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Promoter"/>
+    <s v="teas"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="cat"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="cats"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="chicken"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="china"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="dog"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="dogs"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="food"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="jerky"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="treat"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Detractor"/>
+    <s v="treats"/>
+    <n v="1"/>
+    <s v="General / Other"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="amazon"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="best"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="coffee"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="cup"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="flavor"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="great"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="love"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="price"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Promoter"/>
+    <s v="taste"/>
+    <n v="1"/>
+    <s v="Price &amp; Value"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="bad"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="coconut"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="coffee"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="cup"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="don"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="flavor"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="just"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="taste"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Detractor"/>
+    <s v="water"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="bag"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="box"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="hot"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="just"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="salt"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="sauce"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="use"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Promoter"/>
+    <s v="water"/>
+    <n v="1"/>
+    <s v="Packaging / Damage"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="drink"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="flavor"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="just"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="sugar"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="sweet"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="taste"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="tastes"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="tea"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Detractor"/>
+    <s v="tried"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="bread"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="butter"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="coconut"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="great"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="oil"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="popcorn"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="taste"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="use"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Promoter"/>
+    <s v="used"/>
+    <n v="1"/>
+    <s v="Taste &amp; Freshness"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="amazon"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="br"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="com"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="corn"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="free"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="ingredient"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="ingredients"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="natural"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="oil"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="organic"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Detractor"/>
+    <s v="sugar"/>
+    <n v="1"/>
+    <s v="Quality / Ingredients"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="dog"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="dogs"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="good"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="great"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="just"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="like"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="love"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="loves"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="product"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="time"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="treat"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Promoter"/>
+    <s v="treats"/>
+    <n v="1"/>
+    <s v="Delicious / Love"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5069DE4A-D28D-554F-BF41-21616808564C}" name="PivotTable4" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5069DE4A-D28D-554F-BF41-21616808564C}" name="PivotTable4" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:C13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -13002,6 +14793,32 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2FF791E-F095-E64F-BB03-D287B77AC3AC}" name="PivotTable15" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="VoC_topics_with_themes" connectionId="1" xr16:uid="{B2191BD1-70A8-A749-8B39-6F6AD3995F4D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13337,7 +15154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F18979F-9EA4-4545-A9EC-B0BD26AE6DB7}">
   <dimension ref="A3:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -13477,6 +15294,3412 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F362E30-65DA-7444-8DBE-B28B85AA9ABE}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762106FD-A160-1444-86D6-1A2B2B29D5A2}">
+  <dimension ref="A1:E193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" t="s">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C10" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C11" t="s">
+        <v>604</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C12" t="s">
+        <v>605</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>607</v>
+      </c>
+      <c r="C14" t="s">
+        <v>608</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>607</v>
+      </c>
+      <c r="C16" t="s">
+        <v>610</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>607</v>
+      </c>
+      <c r="C17" t="s">
+        <v>611</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C18" t="s">
+        <v>612</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>607</v>
+      </c>
+      <c r="C19" t="s">
+        <v>613</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>607</v>
+      </c>
+      <c r="C20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" t="s">
+        <v>598</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" t="s">
+        <v>614</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C23" t="s">
+        <v>615</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>607</v>
+      </c>
+      <c r="C24" t="s">
+        <v>616</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>607</v>
+      </c>
+      <c r="C25" t="s">
+        <v>617</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" t="s">
+        <v>618</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" t="s">
+        <v>620</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>593</v>
+      </c>
+      <c r="C28" t="s">
+        <v>621</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>593</v>
+      </c>
+      <c r="C29" t="s">
+        <v>622</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>593</v>
+      </c>
+      <c r="C30" t="s">
+        <v>623</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>593</v>
+      </c>
+      <c r="C31" t="s">
+        <v>624</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>593</v>
+      </c>
+      <c r="C32" t="s">
+        <v>625</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>593</v>
+      </c>
+      <c r="C33" t="s">
+        <v>626</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>593</v>
+      </c>
+      <c r="C34" t="s">
+        <v>627</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>593</v>
+      </c>
+      <c r="C35" t="s">
+        <v>628</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>593</v>
+      </c>
+      <c r="C36" t="s">
+        <v>600</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>593</v>
+      </c>
+      <c r="C37" t="s">
+        <v>629</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C38" t="s">
+        <v>594</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>607</v>
+      </c>
+      <c r="C39" t="s">
+        <v>631</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C40" t="s">
+        <v>632</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>607</v>
+      </c>
+      <c r="C41" t="s">
+        <v>633</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>607</v>
+      </c>
+      <c r="C42" t="s">
+        <v>634</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>607</v>
+      </c>
+      <c r="C43" t="s">
+        <v>635</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>607</v>
+      </c>
+      <c r="C44" t="s">
+        <v>636</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>607</v>
+      </c>
+      <c r="C45" t="s">
+        <v>613</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>607</v>
+      </c>
+      <c r="C46" t="s">
+        <v>598</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>607</v>
+      </c>
+      <c r="C47" t="s">
+        <v>637</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>607</v>
+      </c>
+      <c r="C48" t="s">
+        <v>638</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>607</v>
+      </c>
+      <c r="C49" t="s">
+        <v>639</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>593</v>
+      </c>
+      <c r="C50" t="s">
+        <v>608</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>593</v>
+      </c>
+      <c r="C51" t="s">
+        <v>622</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>593</v>
+      </c>
+      <c r="C52" t="s">
+        <v>594</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>593</v>
+      </c>
+      <c r="C53" t="s">
+        <v>640</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>593</v>
+      </c>
+      <c r="C54" t="s">
+        <v>610</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>593</v>
+      </c>
+      <c r="C55" t="s">
+        <v>641</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>593</v>
+      </c>
+      <c r="C56" t="s">
+        <v>612</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57" t="s">
+        <v>597</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>593</v>
+      </c>
+      <c r="C58" t="s">
+        <v>598</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>593</v>
+      </c>
+      <c r="C59" t="s">
+        <v>600</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>593</v>
+      </c>
+      <c r="C60" t="s">
+        <v>642</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61" t="s">
+        <v>617</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>607</v>
+      </c>
+      <c r="C62" t="s">
+        <v>643</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>607</v>
+      </c>
+      <c r="C63" t="s">
+        <v>594</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>607</v>
+      </c>
+      <c r="C64" t="s">
+        <v>624</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>607</v>
+      </c>
+      <c r="C65" t="s">
+        <v>641</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>607</v>
+      </c>
+      <c r="C66" t="s">
+        <v>611</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>607</v>
+      </c>
+      <c r="C67" t="s">
+        <v>645</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>607</v>
+      </c>
+      <c r="C68" t="s">
+        <v>612</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>607</v>
+      </c>
+      <c r="C69" t="s">
+        <v>613</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>607</v>
+      </c>
+      <c r="C70" t="s">
+        <v>597</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>607</v>
+      </c>
+      <c r="C71" t="s">
+        <v>598</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>607</v>
+      </c>
+      <c r="C72" t="s">
+        <v>637</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>607</v>
+      </c>
+      <c r="C73" t="s">
+        <v>617</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>593</v>
+      </c>
+      <c r="C74" t="s">
+        <v>646</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>593</v>
+      </c>
+      <c r="C75" t="s">
+        <v>647</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>593</v>
+      </c>
+      <c r="C76" t="s">
+        <v>635</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>593</v>
+      </c>
+      <c r="C77" t="s">
+        <v>648</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>593</v>
+      </c>
+      <c r="C78" t="s">
+        <v>636</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>593</v>
+      </c>
+      <c r="C79" t="s">
+        <v>612</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>593</v>
+      </c>
+      <c r="C80" t="s">
+        <v>597</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>593</v>
+      </c>
+      <c r="C81" t="s">
+        <v>598</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>593</v>
+      </c>
+      <c r="C82" t="s">
+        <v>614</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>593</v>
+      </c>
+      <c r="C83" t="s">
+        <v>617</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>593</v>
+      </c>
+      <c r="C84" t="s">
+        <v>649</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>593</v>
+      </c>
+      <c r="C85" t="s">
+        <v>650</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>607</v>
+      </c>
+      <c r="C86" t="s">
+        <v>594</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>607</v>
+      </c>
+      <c r="C87" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>607</v>
+      </c>
+      <c r="C88" t="s">
+        <v>611</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>607</v>
+      </c>
+      <c r="C89" t="s">
+        <v>612</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>607</v>
+      </c>
+      <c r="C90" t="s">
+        <v>613</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>607</v>
+      </c>
+      <c r="C91" t="s">
+        <v>652</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>607</v>
+      </c>
+      <c r="C92" t="s">
+        <v>653</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>607</v>
+      </c>
+      <c r="C93" t="s">
+        <v>598</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>607</v>
+      </c>
+      <c r="C94" t="s">
+        <v>637</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>607</v>
+      </c>
+      <c r="C95" t="s">
+        <v>617</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>607</v>
+      </c>
+      <c r="C96" t="s">
+        <v>654</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>607</v>
+      </c>
+      <c r="C97" t="s">
+        <v>655</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>593</v>
+      </c>
+      <c r="C98" t="s">
+        <v>594</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>593</v>
+      </c>
+      <c r="C99" t="s">
+        <v>631</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>593</v>
+      </c>
+      <c r="C100" t="s">
+        <v>632</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>593</v>
+      </c>
+      <c r="C101" t="s">
+        <v>656</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>593</v>
+      </c>
+      <c r="C102" t="s">
+        <v>657</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>593</v>
+      </c>
+      <c r="C103" t="s">
+        <v>633</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>593</v>
+      </c>
+      <c r="C104" t="s">
+        <v>634</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>593</v>
+      </c>
+      <c r="C105" t="s">
+        <v>636</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>593</v>
+      </c>
+      <c r="C106" t="s">
+        <v>658</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>593</v>
+      </c>
+      <c r="C107" t="s">
+        <v>600</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>593</v>
+      </c>
+      <c r="C108" t="s">
+        <v>659</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>593</v>
+      </c>
+      <c r="C109" t="s">
+        <v>639</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>607</v>
+      </c>
+      <c r="C110" t="s">
+        <v>618</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>607</v>
+      </c>
+      <c r="C111" t="s">
+        <v>643</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>607</v>
+      </c>
+      <c r="C112" t="s">
+        <v>661</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>607</v>
+      </c>
+      <c r="C113" t="s">
+        <v>662</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>607</v>
+      </c>
+      <c r="C114" t="s">
+        <v>611</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>607</v>
+      </c>
+      <c r="C115" t="s">
+        <v>612</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>607</v>
+      </c>
+      <c r="C116" t="s">
+        <v>613</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>607</v>
+      </c>
+      <c r="C117" t="s">
+        <v>598</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>607</v>
+      </c>
+      <c r="C118" t="s">
+        <v>637</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>607</v>
+      </c>
+      <c r="C119" t="s">
+        <v>628</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>607</v>
+      </c>
+      <c r="C120" t="s">
+        <v>600</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>607</v>
+      </c>
+      <c r="C121" t="s">
+        <v>617</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>593</v>
+      </c>
+      <c r="C122" t="s">
+        <v>663</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>593</v>
+      </c>
+      <c r="C123" t="s">
+        <v>664</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>593</v>
+      </c>
+      <c r="C124" t="s">
+        <v>661</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>593</v>
+      </c>
+      <c r="C125" t="s">
+        <v>662</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>593</v>
+      </c>
+      <c r="C126" t="s">
+        <v>647</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>593</v>
+      </c>
+      <c r="C127" t="s">
+        <v>611</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>593</v>
+      </c>
+      <c r="C128" t="s">
+        <v>612</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>593</v>
+      </c>
+      <c r="C129" t="s">
+        <v>597</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>593</v>
+      </c>
+      <c r="C130" t="s">
+        <v>598</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>593</v>
+      </c>
+      <c r="C131" t="s">
+        <v>600</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>593</v>
+      </c>
+      <c r="C132" t="s">
+        <v>617</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>593</v>
+      </c>
+      <c r="C133" t="s">
+        <v>606</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>607</v>
+      </c>
+      <c r="C134" t="s">
+        <v>620</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>607</v>
+      </c>
+      <c r="C135" t="s">
+        <v>622</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>607</v>
+      </c>
+      <c r="C136" t="s">
+        <v>594</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>607</v>
+      </c>
+      <c r="C137" t="s">
+        <v>612</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>607</v>
+      </c>
+      <c r="C138" t="s">
+        <v>653</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>607</v>
+      </c>
+      <c r="C139" t="s">
+        <v>597</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>607</v>
+      </c>
+      <c r="C140" t="s">
+        <v>598</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>607</v>
+      </c>
+      <c r="C141" t="s">
+        <v>600</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>607</v>
+      </c>
+      <c r="C142" t="s">
+        <v>665</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>607</v>
+      </c>
+      <c r="C143" t="s">
+        <v>602</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>607</v>
+      </c>
+      <c r="C144" t="s">
+        <v>604</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>607</v>
+      </c>
+      <c r="C145" t="s">
+        <v>606</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>593</v>
+      </c>
+      <c r="C146" t="s">
+        <v>594</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>593</v>
+      </c>
+      <c r="C147" t="s">
+        <v>651</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>593</v>
+      </c>
+      <c r="C148" t="s">
+        <v>611</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>593</v>
+      </c>
+      <c r="C149" t="s">
+        <v>612</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>593</v>
+      </c>
+      <c r="C150" t="s">
+        <v>597</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>593</v>
+      </c>
+      <c r="C151" t="s">
+        <v>598</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>593</v>
+      </c>
+      <c r="C152" t="s">
+        <v>615</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>593</v>
+      </c>
+      <c r="C153" t="s">
+        <v>616</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>593</v>
+      </c>
+      <c r="C154" t="s">
+        <v>617</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>593</v>
+      </c>
+      <c r="C155" t="s">
+        <v>666</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>593</v>
+      </c>
+      <c r="C156" t="s">
+        <v>654</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>593</v>
+      </c>
+      <c r="C157" t="s">
+        <v>649</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>607</v>
+      </c>
+      <c r="C158" t="s">
+        <v>667</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>607</v>
+      </c>
+      <c r="C159" t="s">
+        <v>668</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>607</v>
+      </c>
+      <c r="C160" t="s">
+        <v>664</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>607</v>
+      </c>
+      <c r="C161" t="s">
+        <v>612</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>607</v>
+      </c>
+      <c r="C162" t="s">
+        <v>613</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>607</v>
+      </c>
+      <c r="C163" t="s">
+        <v>598</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>607</v>
+      </c>
+      <c r="C164" t="s">
+        <v>669</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>607</v>
+      </c>
+      <c r="C165" t="s">
+        <v>670</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>607</v>
+      </c>
+      <c r="C166" t="s">
+        <v>600</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>607</v>
+      </c>
+      <c r="C167" t="s">
+        <v>617</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>607</v>
+      </c>
+      <c r="C168" t="s">
+        <v>604</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>607</v>
+      </c>
+      <c r="C169" t="s">
+        <v>605</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>593</v>
+      </c>
+      <c r="C170" t="s">
+        <v>618</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>593</v>
+      </c>
+      <c r="C171" t="s">
+        <v>594</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>593</v>
+      </c>
+      <c r="C172" t="s">
+        <v>672</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>593</v>
+      </c>
+      <c r="C173" t="s">
+        <v>673</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>593</v>
+      </c>
+      <c r="C174" t="s">
+        <v>645</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>593</v>
+      </c>
+      <c r="C175" t="s">
+        <v>674</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>593</v>
+      </c>
+      <c r="C176" t="s">
+        <v>675</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>593</v>
+      </c>
+      <c r="C177" t="s">
+        <v>676</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>593</v>
+      </c>
+      <c r="C178" t="s">
+        <v>669</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>593</v>
+      </c>
+      <c r="C179" t="s">
+        <v>677</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>593</v>
+      </c>
+      <c r="C180" t="s">
+        <v>600</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>593</v>
+      </c>
+      <c r="C181" t="s">
+        <v>615</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>607</v>
+      </c>
+      <c r="C182" t="s">
+        <v>633</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>607</v>
+      </c>
+      <c r="C183" t="s">
+        <v>634</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>607</v>
+      </c>
+      <c r="C184" t="s">
+        <v>612</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>607</v>
+      </c>
+      <c r="C185" t="s">
+        <v>613</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>607</v>
+      </c>
+      <c r="C186" t="s">
+        <v>597</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>607</v>
+      </c>
+      <c r="C187" t="s">
+        <v>598</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>607</v>
+      </c>
+      <c r="C188" t="s">
+        <v>637</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>607</v>
+      </c>
+      <c r="C189" t="s">
+        <v>638</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>607</v>
+      </c>
+      <c r="C190" t="s">
+        <v>600</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>607</v>
+      </c>
+      <c r="C191" t="s">
+        <v>603</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>607</v>
+      </c>
+      <c r="C192" t="s">
+        <v>659</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>607</v>
+      </c>
+      <c r="C193" t="s">
+        <v>639</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D00FCD-837E-A64A-BF43-B97E03F8EC06}">
   <dimension ref="A1:E1288"/>
   <sheetViews>
